--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyuanjia/Documents/OpenStudio/BayesianCalibration_Openstudio_V1.1/Tutorials/Demo_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BCUS\Install\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -409,6 +409,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,31 +741,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -787,17 +790,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -805,7 +808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -813,7 +816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -853,15 +856,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -889,7 +892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -903,7 +906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -917,7 +920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -931,7 +934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -942,7 +945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -953,7 +956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -964,7 +967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -972,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -980,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -988,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -996,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyuanjia/Documents/OpenStudio/BayesianCalibration_Openstudio_V1.1/Tutorials/Demo_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BCUS\Install\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
     <sheet name="Meters" sheetId="3" r:id="rId2"/>
     <sheet name="Sources" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -409,6 +409,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -736,33 +739,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -785,19 +798,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -805,7 +818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -813,11 +826,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -853,15 +874,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -889,7 +910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -903,7 +924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -917,7 +938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -931,7 +952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -942,7 +963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -953,7 +974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -964,7 +985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -972,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -996,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1004,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1020,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1076,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,16 +766,6 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,14 +821,6 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -760,12 +760,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +806,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,26 +763,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -793,7 +773,7 @@
           <x14:formula1>
             <xm:f>Sources!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A24</xm:sqref>
+          <xm:sqref>A2:A25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -803,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,15 +808,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -849,13 +821,13 @@
           <x14:formula1>
             <xm:f>Sources!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B30</xm:sqref>
+          <xm:sqref>B2:B24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sources!$D$2:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A30</xm:sqref>
+          <xm:sqref>A2:A24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -868,7 +840,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -212,6 +212,27 @@
   </si>
   <si>
     <t>Timestep</t>
+  </si>
+  <si>
+    <t>Carbon Equivalent:Facility</t>
+  </si>
+  <si>
+    <t>Fans:Electricity</t>
+  </si>
+  <si>
+    <t>Pumps:Electricity</t>
+  </si>
+  <si>
+    <t>General:WaterSystems:MainsWater</t>
+  </si>
+  <si>
+    <t>General:WaterSystems:Water</t>
+  </si>
+  <si>
+    <t>CarbonEquivalentEmissions:Carbon Equivalent</t>
+  </si>
+  <si>
+    <t>note: units of electricity and gas are J, units of w are m^3, units of carbon are kg</t>
   </si>
 </sst>
 </file>
@@ -739,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,6 +782,16 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,12 +842,36 @@
         <v>61</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sources!$E$2:$E$5</xm:f>
@@ -825,9 +880,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sources!$D$2:$D$8</xm:f>
+            <xm:f>Sources!$D$2:$D$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A24</xm:sqref>
+          <xm:sqref>A3:A24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sources!$D$2:$D$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -839,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -961,6 +1022,9 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -969,6 +1033,9 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -977,6 +1044,9 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -985,6 +1055,9 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -993,6 +1066,9 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1001,6 +1077,9 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1016,6 +1095,9 @@
       </c>
       <c r="B16" t="s">
         <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -814,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,30 +839,14 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -900,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BCUS\Install\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyuanjia/Documents/OpenStudio/BayesianCalibration_Openstudio_V1.1/Tutorials/Demo_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
     <sheet name="Meters" sheetId="3" r:id="rId2"/>
     <sheet name="Sources" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -212,33 +212,12 @@
   </si>
   <si>
     <t>Timestep</t>
-  </si>
-  <si>
-    <t>Carbon Equivalent:Facility</t>
-  </si>
-  <si>
-    <t>Fans:Electricity</t>
-  </si>
-  <si>
-    <t>Pumps:Electricity</t>
-  </si>
-  <si>
-    <t>General:WaterSystems:MainsWater</t>
-  </si>
-  <si>
-    <t>General:WaterSystems:Water</t>
-  </si>
-  <si>
-    <t>CarbonEquivalentEmissions:Carbon Equivalent</t>
-  </si>
-  <si>
-    <t>note: units of electricity and gas are J, units of w are m^3, units of carbon are kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -430,9 +409,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -760,37 +736,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -804,7 +775,7 @@
           <x14:formula1>
             <xm:f>Sources!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A25</xm:sqref>
+          <xm:sqref>A2:A24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -816,17 +787,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -834,7 +805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -842,7 +813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -855,24 +826,18 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sources!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B24</xm:sqref>
+          <xm:sqref>B2:B30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sources!$D$2:$D$14</xm:f>
+            <xm:f>Sources!$D$2:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sources!$D$2:$D$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>A2:A30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -884,19 +849,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -910,7 +875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -924,7 +889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -938,7 +903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -952,7 +917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -966,7 +931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -977,7 +942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -988,7 +953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -999,73 +964,55 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1073,18 +1020,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1100,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1108,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1140,7 +1084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiyuanjia/Documents/OpenStudio/BayesianCalibration_Openstudio_V1.1/Tutorials/Demo_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BCUS\Install\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
     <sheet name="Meters" sheetId="3" r:id="rId2"/>
     <sheet name="Sources" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>electricityHeating</t>
   </si>
@@ -212,12 +212,33 @@
   </si>
   <si>
     <t>Timestep</t>
+  </si>
+  <si>
+    <t>Carbon Equivalent:Facility</t>
+  </si>
+  <si>
+    <t>Fans:Electricity</t>
+  </si>
+  <si>
+    <t>Pumps:Electricity</t>
+  </si>
+  <si>
+    <t>General:WaterSystems:MainsWater</t>
+  </si>
+  <si>
+    <t>General:WaterSystems:Water</t>
+  </si>
+  <si>
+    <t>CarbonEquivalentEmissions:Carbon Equivalent</t>
+  </si>
+  <si>
+    <t>note: units of electricity and gas are J, units of w are m^3, units of carbon are kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -409,6 +430,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -736,32 +760,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -775,7 +804,7 @@
           <x14:formula1>
             <xm:f>Sources!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A24</xm:sqref>
+          <xm:sqref>A2:A25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -787,17 +816,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -805,7 +834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -813,7 +842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -826,18 +855,24 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sources!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B30</xm:sqref>
+          <xm:sqref>B2:B24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sources!$D$2:$D$8</xm:f>
+            <xm:f>Sources!$D$2:$D$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A30</xm:sqref>
+          <xm:sqref>A3:A24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sources!$D$2:$D$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -849,19 +884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -889,7 +924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -903,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -917,7 +952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -931,7 +966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -942,7 +977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -953,7 +988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -964,55 +999,73 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1020,15 +1073,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1076,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TotalEnergy" sheetId="1" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Install/Simulation_Output_Settings.xlsx
+++ b/Install/Simulation_Output_Settings.xlsx
@@ -817,7 +817,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
